--- a/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5404-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8788</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4264</v>
+        <v>4361</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14918</v>
+        <v>15937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02354776718266463</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01142634284169554</v>
+        <v>0.01168669953414259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03997465823213352</v>
+        <v>0.04270402013764697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>26733</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17420</v>
+        <v>17326</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38320</v>
+        <v>39351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04548392585722599</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02963934747344328</v>
+        <v>0.02947912276259403</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06519732325305848</v>
+        <v>0.06695215721824034</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -786,19 +786,19 @@
         <v>35521</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25863</v>
+        <v>24779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49491</v>
+        <v>49834</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03696482374463755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02691448682719395</v>
+        <v>0.02578609491541377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05150313895413697</v>
+        <v>0.05185995603301379</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>18133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11041</v>
+        <v>11926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27224</v>
+        <v>27494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04858985233275743</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02958571988941525</v>
+        <v>0.03195722660709144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07295065202911563</v>
+        <v>0.07367210602639956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -836,19 +836,19 @@
         <v>32584</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21713</v>
+        <v>22673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45566</v>
+        <v>45721</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05543846131963719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03694335720958223</v>
+        <v>0.03857650425369288</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07752597014234708</v>
+        <v>0.07779037730363397</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -857,19 +857,19 @@
         <v>50717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38102</v>
+        <v>38149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66345</v>
+        <v>65437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0527787431732655</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0396506982375739</v>
+        <v>0.03969957312542182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06904230497666838</v>
+        <v>0.06809739474301366</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>346268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>335970</v>
+        <v>335228</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>354784</v>
+        <v>354163</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9278623804845779</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9002678259266724</v>
+        <v>0.8982781538621724</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9506815961398943</v>
+        <v>0.9490190427698947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>519</v>
@@ -907,19 +907,19 @@
         <v>528432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>513080</v>
+        <v>511828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>542725</v>
+        <v>541797</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8990776128231368</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8729584508641572</v>
+        <v>0.8708275637284457</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9233957525521761</v>
+        <v>0.9218169356176116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>888</v>
@@ -928,19 +928,19 @@
         <v>874700</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>852831</v>
+        <v>854994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>889642</v>
+        <v>890641</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9102564330820969</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8874979781534741</v>
+        <v>0.8897496859781651</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9258053931658466</v>
+        <v>0.9268450841233523</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9364</v>
+        <v>8388</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0198804174569958</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1063071998428909</v>
+        <v>0.09523013623314464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7308</v>
+        <v>6953</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03303041069079647</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1174710433412393</v>
+        <v>0.1117558247251024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1074,19 +1074,19 @@
         <v>3806</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10772</v>
+        <v>10742</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02532362597819161</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006072645807053281</v>
+        <v>0.0061882006300503</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0716714430028047</v>
+        <v>0.07147522864284661</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>2590</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6891</v>
+        <v>7436</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02940816296277897</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009181378100809141</v>
+        <v>0.009177933075316188</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07823475583866207</v>
+        <v>0.08441762121239876</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5676</v>
+        <v>5005</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01806781192418755</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.091242659020616</v>
+        <v>0.08044432748561044</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1145,19 +1145,19 @@
         <v>3714</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>938</v>
+        <v>1111</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8786</v>
+        <v>10332</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02471402401463507</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006238542403741241</v>
+        <v>0.007395289401886205</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05845553507491177</v>
+        <v>0.06874536036686349</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>83742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77486</v>
+        <v>76941</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87093</v>
+        <v>86468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9507114195802252</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8796972991188945</v>
+        <v>0.8735056654546919</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9887598925902329</v>
+        <v>0.9816633440089366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1195,19 +1195,19 @@
         <v>59033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53866</v>
+        <v>53743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61297</v>
+        <v>61307</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.948901777385016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8658421028305234</v>
+        <v>0.8638731050291147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9852874788215512</v>
+        <v>0.9854481358593065</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1216,19 +1216,19 @@
         <v>142775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135232</v>
+        <v>134657</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147364</v>
+        <v>147184</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9499623500071733</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8997799554616182</v>
+        <v>0.8959538592567162</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9805015466306655</v>
+        <v>0.9793019819726803</v>
       </c>
     </row>
     <row r="11">
@@ -1536,19 +1536,19 @@
         <v>10539</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5209</v>
+        <v>5365</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18563</v>
+        <v>18854</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02097433554501325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01036780956313693</v>
+        <v>0.0106769937855161</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03694377233716712</v>
+        <v>0.03752370401794638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1557,19 +1557,19 @@
         <v>28788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19061</v>
+        <v>19584</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40676</v>
+        <v>40052</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0425328731797484</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02816151057777279</v>
+        <v>0.02893442832714287</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06009684955103264</v>
+        <v>0.05917425656642269</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1578,19 +1578,19 @@
         <v>39327</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27634</v>
+        <v>28488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52417</v>
+        <v>52952</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03334745914221331</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02343205833371135</v>
+        <v>0.02415647125718613</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04444751716061437</v>
+        <v>0.04490056394154767</v>
       </c>
     </row>
     <row r="17">
@@ -1607,19 +1607,19 @@
         <v>20724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13193</v>
+        <v>14372</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>29775</v>
+        <v>31579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04124368864540114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02625740491629797</v>
+        <v>0.02860351954795546</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05925715579993482</v>
+        <v>0.06284820924441316</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -1628,19 +1628,19 @@
         <v>33708</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22231</v>
+        <v>23392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46250</v>
+        <v>46644</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04980181034342319</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03284483715013303</v>
+        <v>0.03456080512261933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06833179557863503</v>
+        <v>0.06891471526137513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -1649,19 +1649,19 @@
         <v>54432</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43103</v>
+        <v>41076</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72349</v>
+        <v>70642</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04615546417134846</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03654966119998008</v>
+        <v>0.03483044918709861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06134904417141986</v>
+        <v>0.05990104158532891</v>
       </c>
     </row>
     <row r="18">
@@ -1678,19 +1678,19 @@
         <v>471204</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>459917</v>
+        <v>458962</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>480530</v>
+        <v>479663</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9377819758095856</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.915318971304072</v>
+        <v>0.9134183903726087</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9563438082618031</v>
+        <v>0.9546171213569796</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>603</v>
@@ -1699,19 +1699,19 @@
         <v>614346</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>598490</v>
+        <v>598847</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>629860</v>
+        <v>628560</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9076653164768285</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8842392416862065</v>
+        <v>0.8847663762577932</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9305866179910566</v>
+        <v>0.9286653204450136</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1092</v>
@@ -1720,19 +1720,19 @@
         <v>1085550</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1064641</v>
+        <v>1066793</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1102072</v>
+        <v>1104239</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9204970766864382</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9027678560406265</v>
+        <v>0.9045923187532333</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9345074908199521</v>
+        <v>0.936344666133714</v>
       </c>
     </row>
     <row r="19">
@@ -2063,19 +2063,19 @@
         <v>22043</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13896</v>
+        <v>13829</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33335</v>
+        <v>33693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05319347674433241</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03353238831868316</v>
+        <v>0.03337182282231906</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08044210624119258</v>
+        <v>0.08130617919065238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -2084,19 +2084,19 @@
         <v>42487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30203</v>
+        <v>30038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57798</v>
+        <v>56635</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0669560980880935</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04759776455397794</v>
+        <v>0.0473380997140994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09108578196290744</v>
+        <v>0.08925307314092966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -2105,19 +2105,19 @@
         <v>64530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49498</v>
+        <v>49663</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83292</v>
+        <v>82158</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06151900309250887</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04718813503316321</v>
+        <v>0.04734570027947241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07940550080684873</v>
+        <v>0.07832461267571317</v>
       </c>
     </row>
     <row r="5">
@@ -2134,19 +2134,19 @@
         <v>25001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15603</v>
+        <v>15930</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36844</v>
+        <v>37045</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06033108947867784</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03765230731186103</v>
+        <v>0.03844200004104487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08890865064231035</v>
+        <v>0.08939479510693329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -2155,19 +2155,19 @@
         <v>72632</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58760</v>
+        <v>58959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91305</v>
+        <v>91393</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1144638629448834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09260215880307983</v>
+        <v>0.09291608398440104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1438903138088096</v>
+        <v>0.1440295387975574</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>88</v>
@@ -2176,19 +2176,19 @@
         <v>97633</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80124</v>
+        <v>77786</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121027</v>
+        <v>117962</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09307803648358601</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07638516150607744</v>
+        <v>0.07415665632621964</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1153804049488846</v>
+        <v>0.1124583192868749</v>
       </c>
     </row>
     <row r="6">
@@ -2205,19 +2205,19 @@
         <v>367354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>353202</v>
+        <v>353067</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>380535</v>
+        <v>379179</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8864754337769898</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8523256867729444</v>
+        <v>0.8520002241826904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.918284297660719</v>
+        <v>0.9150117486072847</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>491</v>
@@ -2226,19 +2226,19 @@
         <v>519426</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>498232</v>
+        <v>499496</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>537412</v>
+        <v>538353</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.818580038967023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7851805625050567</v>
+        <v>0.7871723547348657</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8469246931731922</v>
+        <v>0.8484085234737441</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>828</v>
@@ -2247,19 +2247,19 @@
         <v>886779</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>858430</v>
+        <v>860250</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>910833</v>
+        <v>910775</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8454029604239052</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8183768167427719</v>
+        <v>0.8201122501756292</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8683349858364103</v>
+        <v>0.8682795020624924</v>
       </c>
     </row>
     <row r="7">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5365</v>
+        <v>6044</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00836066539988874</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04521305809443148</v>
+        <v>0.05093196873374852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8499</v>
+        <v>8438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02917861155365456</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1023115979848438</v>
+        <v>0.1015738333025159</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -2393,19 +2393,19 @@
         <v>3416</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9159</v>
+        <v>9513</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0169333130785138</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0049077224768388</v>
+        <v>0.004950610507990549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04540108701278062</v>
+        <v>0.04715537706230918</v>
       </c>
     </row>
     <row r="9">
@@ -2422,19 +2422,19 @@
         <v>5442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1952</v>
+        <v>2005</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15242</v>
+        <v>15376</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04586110356145903</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01645147361236655</v>
+        <v>0.0169002373853867</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1284495197730211</v>
+        <v>0.1295789378353112</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5337</v>
+        <v>5524</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01271504325915858</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06424525738494088</v>
+        <v>0.0664992375031883</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -2464,19 +2464,19 @@
         <v>6498</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2118</v>
+        <v>2126</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16134</v>
+        <v>15906</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03221184657869555</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01049815533929687</v>
+        <v>0.01053934961807301</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07997421529044034</v>
+        <v>0.07884644681285879</v>
       </c>
     </row>
     <row r="10">
@@ -2493,19 +2493,19 @@
         <v>112231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103183</v>
+        <v>103551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116565</v>
+        <v>116573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9457782310386522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8695287130479071</v>
+        <v>0.8726338272214861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9823021539109943</v>
+        <v>0.9823707563396045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -2514,19 +2514,19 @@
         <v>79594</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72647</v>
+        <v>73833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82026</v>
+        <v>82028</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9581063451871868</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.874483050456585</v>
+        <v>0.8887675253381175</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9873898180059775</v>
+        <v>0.9874122290666819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -2535,19 +2535,19 @@
         <v>191825</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182532</v>
+        <v>181777</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197556</v>
+        <v>197379</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9508548403427907</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9047919530606964</v>
+        <v>0.9010520004442465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9792675685602236</v>
+        <v>0.9783894666352385</v>
       </c>
     </row>
     <row r="11">
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="14">
@@ -2762,7 +2762,7 @@
         <v>21146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15945</v>
+        <v>15417</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22246</v>
@@ -2771,7 +2771,7 @@
         <v>0.9505723444543134</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7167562715227499</v>
+        <v>0.6930418457387111</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>47721</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42972</v>
+        <v>43035</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>48821</v>
@@ -2792,7 +2792,7 @@
         <v>0.9774773962486789</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8801900104656916</v>
+        <v>0.8814908744658403</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -2887,19 +2887,19 @@
         <v>23035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14769</v>
+        <v>15312</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34512</v>
+        <v>36255</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04116127063713625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02638978357467246</v>
+        <v>0.02736078393329342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0616679999766488</v>
+        <v>0.06478248244304262</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -2908,19 +2908,19 @@
         <v>44911</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30725</v>
+        <v>32906</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57882</v>
+        <v>60242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06070111116166423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04152812453301496</v>
+        <v>0.0444762628487208</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07823345783844982</v>
+        <v>0.08142229740261298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>61</v>
@@ -2929,19 +2929,19 @@
         <v>67946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52081</v>
+        <v>53010</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87492</v>
+        <v>87232</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05228618101384492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0400778815681063</v>
+        <v>0.04079239893508604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06732702102666806</v>
+        <v>0.06712736063036409</v>
       </c>
     </row>
     <row r="17">
@@ -2958,19 +2958,19 @@
         <v>30443</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20592</v>
+        <v>18926</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46028</v>
+        <v>43883</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05439804589150637</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03679510474407736</v>
+        <v>0.03381910162885333</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08224642058615753</v>
+        <v>0.07841265477823431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -2979,19 +2979,19 @@
         <v>74788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57708</v>
+        <v>59003</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92356</v>
+        <v>94184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1010836964240952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07799819968166009</v>
+        <v>0.07974864967210712</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1248286674886719</v>
+        <v>0.127299308048241</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>94</v>
@@ -3000,19 +3000,19 @@
         <v>105231</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86132</v>
+        <v>84954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>129597</v>
+        <v>126181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08097828729119602</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06628106425444719</v>
+        <v>0.06537426097194213</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09972800987580506</v>
+        <v>0.09709928465053662</v>
       </c>
     </row>
     <row r="18">
@@ -3029,19 +3029,19 @@
         <v>506158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>489468</v>
+        <v>488971</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>519842</v>
+        <v>520483</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9044406834713574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8746174569150441</v>
+        <v>0.8737279878496313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9288906047149047</v>
+        <v>0.9300363869034982</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>582</v>
@@ -3050,19 +3050,19 @@
         <v>620166</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>599933</v>
+        <v>597130</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>642633</v>
+        <v>639035</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8382151924142406</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8108677740757965</v>
+        <v>0.8070795175963236</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8685817374736423</v>
+        <v>0.8637185051799611</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1040</v>
@@ -3071,19 +3071,19 @@
         <v>1126325</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1097271</v>
+        <v>1098171</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1153361</v>
+        <v>1151318</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8667355316949591</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8443781488979835</v>
+        <v>0.845071033713325</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8875407800801329</v>
+        <v>0.885968955577601</v>
       </c>
     </row>
     <row r="19">
@@ -3414,19 +3414,19 @@
         <v>8595</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4198</v>
+        <v>4283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15084</v>
+        <v>15752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0242855171399992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01186261235713745</v>
+        <v>0.01210280875656088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04262220053014016</v>
+        <v>0.04451015672647862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -3435,19 +3435,19 @@
         <v>24471</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14857</v>
+        <v>15411</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37563</v>
+        <v>39708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04411142012105362</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02678192036271879</v>
+        <v>0.02778028576224533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06771009301575842</v>
+        <v>0.07157751103134984</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -3456,19 +3456,19 @@
         <v>33066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23088</v>
+        <v>22674</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46055</v>
+        <v>47084</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03638968784222538</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02540873289538161</v>
+        <v>0.02495352568920524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05068420966834863</v>
+        <v>0.05181726729478683</v>
       </c>
     </row>
     <row r="5">
@@ -3485,19 +3485,19 @@
         <v>18601</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11893</v>
+        <v>12318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27225</v>
+        <v>28090</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.052560709747714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03360671625671433</v>
+        <v>0.03480677326054404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07692759181806397</v>
+        <v>0.07937161878646572</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -3506,19 +3506,19 @@
         <v>39252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27190</v>
+        <v>27506</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52677</v>
+        <v>53871</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07075524771374019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04901252908174868</v>
+        <v>0.04958252904761048</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09495445478540716</v>
+        <v>0.0971081649112407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -3527,19 +3527,19 @@
         <v>57853</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>44181</v>
+        <v>43541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>75170</v>
+        <v>74821</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06366889450980867</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04862199754873209</v>
+        <v>0.04791794837439448</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08272659589564574</v>
+        <v>0.08234190450396735</v>
       </c>
     </row>
     <row r="6">
@@ -3556,19 +3556,19 @@
         <v>326705</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>316921</v>
+        <v>315812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>335276</v>
+        <v>334870</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9231537731122867</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.895506331871725</v>
+        <v>0.8923750305624563</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9473716539101021</v>
+        <v>0.9462236645980853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>420</v>
@@ -3577,19 +3577,19 @@
         <v>491034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>472294</v>
+        <v>471492</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>505564</v>
+        <v>505857</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8851333321652062</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8513520585249472</v>
+        <v>0.8499077622627031</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9113253083045187</v>
+        <v>0.9118539766240559</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>775</v>
@@ -3598,19 +3598,19 @@
         <v>817739</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>797739</v>
+        <v>796658</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>835631</v>
+        <v>835403</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.899941417647966</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8779308563365938</v>
+        <v>0.876741739924676</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9196316008878822</v>
+        <v>0.9193811544991184</v>
       </c>
     </row>
     <row r="7">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5356</v>
+        <v>6202</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.009080591105922844</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02781970556922231</v>
+        <v>0.03221045179004126</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12362</v>
+        <v>16428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02248956925359784</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06572913131564084</v>
+        <v>0.08734763003775337</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -3744,19 +3744,19 @@
         <v>5978</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1668</v>
+        <v>1682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16903</v>
+        <v>15905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01570655129883374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004381472869200586</v>
+        <v>0.004419704880695414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04441113108756003</v>
+        <v>0.04178805871723967</v>
       </c>
     </row>
     <row r="9">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5200</v>
+        <v>5224</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007698671462280105</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0270074125180608</v>
+        <v>0.02713380039813207</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3794,19 +3794,19 @@
         <v>7983</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3305</v>
+        <v>3209</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15835</v>
+        <v>14877</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04244371205496111</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01757205018057118</v>
+        <v>0.01706499586230312</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08419359057677014</v>
+        <v>0.07910209939539328</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -3815,19 +3815,19 @@
         <v>9465</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4422</v>
+        <v>4520</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17370</v>
+        <v>17143</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0248677095002827</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01161792456500422</v>
+        <v>0.01187496041862041</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04563718277724537</v>
+        <v>0.04504049461438776</v>
       </c>
     </row>
     <row r="10">
@@ -3844,19 +3844,19 @@
         <v>189301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>185147</v>
+        <v>184601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191789</v>
+        <v>191653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9832207374317971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9616406764405597</v>
+        <v>0.9588082311236442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9961421024508532</v>
+        <v>0.9954349629713933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>148</v>
@@ -3865,19 +3865,19 @@
         <v>175862</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164801</v>
+        <v>166241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>182121</v>
+        <v>182014</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9350667186914411</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8762543483844999</v>
+        <v>0.8839130685358777</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9683474709397002</v>
+        <v>0.9677770645595121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>341</v>
@@ -3886,19 +3886,19 @@
         <v>365163</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>355485</v>
+        <v>354219</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>372162</v>
+        <v>372255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9594257392008836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9339967561220363</v>
+        <v>0.9306702155560824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9778141030567234</v>
+        <v>0.9780598727450356</v>
       </c>
     </row>
     <row r="11">
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4561</v>
+        <v>4453</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02066047213405714</v>
@@ -4049,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1085295393418109</v>
+        <v>0.1059619870850846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8128</v>
+        <v>8020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02964372277476346</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1073614202395558</v>
+        <v>0.1059381705653763</v>
       </c>
     </row>
     <row r="14">
@@ -4108,7 +4108,7 @@
         <v>41161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37468</v>
+        <v>37576</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>42029</v>
@@ -4117,7 +4117,7 @@
         <v>0.9793395278659428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8914704606581888</v>
+        <v>0.8940380129149157</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>32298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26409</v>
+        <v>26809</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>33674</v>
@@ -4138,7 +4138,7 @@
         <v>0.9591441212121478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7842427769358874</v>
+        <v>0.7961316801537394</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -4150,7 +4150,7 @@
         <v>73459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67575</v>
+        <v>67683</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>75703</v>
@@ -4159,7 +4159,7 @@
         <v>0.9703562772252365</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8926385797604441</v>
+        <v>0.8940618294346255</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -4254,19 +4254,19 @@
         <v>10343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5632</v>
+        <v>5281</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17383</v>
+        <v>17322</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01757627918104301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009571404373136309</v>
+        <v>0.008974960562674886</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02954044494937239</v>
+        <v>0.02943575851488734</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4275,19 +4275,19 @@
         <v>28701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18664</v>
+        <v>18995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45093</v>
+        <v>43983</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03696153680341782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02403580963152909</v>
+        <v>0.0244627463451629</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05807225770921312</v>
+        <v>0.05664265094135111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -4296,19 +4296,19 @@
         <v>39044</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27046</v>
+        <v>27872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54712</v>
+        <v>55926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02860419498224416</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01981464850585562</v>
+        <v>0.02041960662514115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04008270963788018</v>
+        <v>0.04097211052783218</v>
       </c>
     </row>
     <row r="17">
@@ -4325,19 +4325,19 @@
         <v>20952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13848</v>
+        <v>13114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30184</v>
+        <v>29073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03560445661909214</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02353288553488004</v>
+        <v>0.02228541755378914</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05129376744932501</v>
+        <v>0.04940582198984329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -4346,19 +4346,19 @@
         <v>48610</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34896</v>
+        <v>35991</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64685</v>
+        <v>64604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06260140515712895</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04493961614465621</v>
+        <v>0.0463504624492647</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08330296519587645</v>
+        <v>0.08319906603326956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -4367,19 +4367,19 @@
         <v>69562</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54851</v>
+        <v>54066</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89993</v>
+        <v>89539</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05096252310272745</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04018465393461447</v>
+        <v>0.03960971689897658</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06593033387763651</v>
+        <v>0.0655975993539885</v>
       </c>
     </row>
     <row r="18">
@@ -4396,19 +4396,19 @@
         <v>557168</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>546662</v>
+        <v>547022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>566025</v>
+        <v>567361</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9468192641998648</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9289652788133005</v>
+        <v>0.9295780060917881</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9618705208874676</v>
+        <v>0.9641409874945029</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>593</v>
@@ -4417,19 +4417,19 @@
         <v>699194</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>678596</v>
+        <v>679593</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>717019</v>
+        <v>715638</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9004370580394532</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8739105049722486</v>
+        <v>0.875194085144345</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9233930510415025</v>
+        <v>0.9216140456406086</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1181</v>
@@ -4438,19 +4438,19 @@
         <v>1256362</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1232750</v>
+        <v>1235063</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1277719</v>
+        <v>1276471</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9204332819150284</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9031350686812182</v>
+        <v>0.9048291084532446</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9360801516056163</v>
+        <v>0.9351658130576278</v>
       </c>
     </row>
     <row r="19">
@@ -4781,19 +4781,19 @@
         <v>7220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3991</v>
+        <v>4013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12311</v>
+        <v>12065</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02488758756399341</v>
+        <v>0.02488758756399342</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01375731386041205</v>
+        <v>0.01383488282640868</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04243900547819077</v>
+        <v>0.04159016513825094</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -4802,19 +4802,19 @@
         <v>38642</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30861</v>
+        <v>30241</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50506</v>
+        <v>48893</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07180682972958302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.057347780739787</v>
+        <v>0.05619564808698314</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09385315781033507</v>
+        <v>0.09085720579579598</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -4823,19 +4823,19 @@
         <v>45862</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36288</v>
+        <v>36451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58164</v>
+        <v>56899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05537293815296553</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04381419921546952</v>
+        <v>0.04401014605944191</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07022731985170323</v>
+        <v>0.06869926143943825</v>
       </c>
     </row>
     <row r="5">
@@ -4852,19 +4852,19 @@
         <v>20879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13898</v>
+        <v>14620</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28668</v>
+        <v>30141</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07197268780725352</v>
+        <v>0.07197268780725356</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04790684199060025</v>
+        <v>0.05039764873044156</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09882218423192048</v>
+        <v>0.103899117052574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -4873,19 +4873,19 @@
         <v>61955</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51189</v>
+        <v>51597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73556</v>
+        <v>73898</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1151287800510123</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09512209718929525</v>
+        <v>0.09588031158901646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1366867000020402</v>
+        <v>0.1373228354277274</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -4894,19 +4894,19 @@
         <v>82834</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>70868</v>
+        <v>70481</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>97508</v>
+        <v>97131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1000129659826305</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08556598962126441</v>
+        <v>0.08509802926091921</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1177309488993884</v>
+        <v>0.1172748901558175</v>
       </c>
     </row>
     <row r="6">
@@ -4923,19 +4923,19 @@
         <v>261996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>252724</v>
+        <v>252176</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>269379</v>
+        <v>269484</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9031397246287528</v>
+        <v>0.903139724628753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8711770193692013</v>
+        <v>0.8692868757862887</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9285876647678836</v>
+        <v>0.9289525370373058</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>834</v>
@@ -4944,19 +4944,19 @@
         <v>437538</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>422491</v>
+        <v>422899</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>449965</v>
+        <v>451320</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8130643902194045</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.785101328409654</v>
+        <v>0.7858599460546899</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8361568175183726</v>
+        <v>0.8386745618311016</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1219</v>
@@ -4965,19 +4965,19 @@
         <v>699535</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>681939</v>
+        <v>682350</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>714122</v>
+        <v>715412</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8446140958644042</v>
+        <v>0.8446140958644041</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8233685598871872</v>
+        <v>0.8238651172741679</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8622269388511303</v>
+        <v>0.863783849559139</v>
       </c>
     </row>
     <row r="7">
@@ -5072,16 +5072,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4446</v>
+        <v>4590</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.004138491060817481</v>
+        <v>0.004138491060817482</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0146324739699931</v>
+        <v>0.01510740648941442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -5090,19 +5090,19 @@
         <v>2342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5346</v>
+        <v>5517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.00843624675261051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003095989756750095</v>
+        <v>0.003042900915215495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01925515854848035</v>
+        <v>0.01986949998066299</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -5111,19 +5111,19 @@
         <v>3600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1503</v>
+        <v>1553</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>7554</v>
+        <v>7364</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006190620759455282</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002584806927221404</v>
+        <v>0.002670689166047155</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01299196823741438</v>
+        <v>0.01266469532582746</v>
       </c>
     </row>
     <row r="9">
@@ -5140,19 +5140,19 @@
         <v>9976</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5941</v>
+        <v>5738</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16513</v>
+        <v>16217</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03283338296823383</v>
+        <v>0.03283338296823384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01955334771319539</v>
+        <v>0.01888568929908122</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05435060125989617</v>
+        <v>0.05337657959768501</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -5161,19 +5161,19 @@
         <v>17021</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11670</v>
+        <v>11151</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23548</v>
+        <v>23351</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.06130642834837971</v>
+        <v>0.0613064283483797</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04203327020754393</v>
+        <v>0.04016310047821883</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0848114592920082</v>
+        <v>0.08410498136605418</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -5182,19 +5182,19 @@
         <v>26997</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>20114</v>
+        <v>19826</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36288</v>
+        <v>36962</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04642893986478742</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03459156832037095</v>
+        <v>0.03409587553079387</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06240800592148419</v>
+        <v>0.06356589708908918</v>
       </c>
     </row>
     <row r="10">
@@ -5211,19 +5211,19 @@
         <v>292592</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>285921</v>
+        <v>286235</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>296881</v>
+        <v>297062</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9630281259709487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9410702156024429</v>
+        <v>0.9421048329689591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9771462994371903</v>
+        <v>0.9777389262579135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>491</v>
@@ -5232,19 +5232,19 @@
         <v>258282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251507</v>
+        <v>251856</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263887</v>
+        <v>264412</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9302573248990097</v>
+        <v>0.9302573248990098</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9058535555168157</v>
+        <v>0.9071108943602447</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9504451838387017</v>
+        <v>0.952334270244514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>900</v>
@@ -5253,19 +5253,19 @@
         <v>550874</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>540823</v>
+        <v>540503</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>558322</v>
+        <v>558227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9473804393757573</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9300937874194591</v>
+        <v>0.929543825329034</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9601880456605911</v>
+        <v>0.9600255105669885</v>
       </c>
     </row>
     <row r="11">
@@ -5404,19 +5404,19 @@
         <v>3387</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7527</v>
+        <v>8144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0284904492234731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01036945144380965</v>
+        <v>0.0103641334516918</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06331910752434028</v>
+        <v>0.06850605284262501</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -5425,19 +5425,19 @@
         <v>2408</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>730</v>
+        <v>675</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5683</v>
+        <v>5943</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02906660541170686</v>
+        <v>0.02906660541170685</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008804907672579564</v>
+        <v>0.008150302199183944</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06859001522261204</v>
+        <v>0.071724114758647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -5446,19 +5446,19 @@
         <v>5795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2560</v>
+        <v>2841</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10582</v>
+        <v>10600</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02872708280502817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0126890184141504</v>
+        <v>0.01408363839280326</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05245486367756215</v>
+        <v>0.05254599949428469</v>
       </c>
     </row>
     <row r="14">
@@ -5475,19 +5475,19 @@
         <v>115494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>111354</v>
+        <v>110737</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117648</v>
+        <v>117649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9715095507765269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9366808924756596</v>
+        <v>0.931493947157375</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9896305485561904</v>
+        <v>0.9896358665483082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>148</v>
@@ -5496,19 +5496,19 @@
         <v>80447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77172</v>
+        <v>76912</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82125</v>
+        <v>82180</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9709333945882931</v>
+        <v>0.9709333945882932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9314099847773879</v>
+        <v>0.928275885241353</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9911950923274205</v>
+        <v>0.9918496978008161</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>311</v>
@@ -5517,19 +5517,19 @@
         <v>195941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191154</v>
+        <v>191136</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>199176</v>
+        <v>198895</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9712729171949719</v>
+        <v>0.9712729171949718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9475451363224373</v>
+        <v>0.947454000505715</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9873109815858496</v>
+        <v>0.9859163616071963</v>
       </c>
     </row>
     <row r="15">
@@ -5621,19 +5621,19 @@
         <v>8477</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4626</v>
+        <v>4854</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13693</v>
+        <v>13563</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01189272159273021</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006489512429204281</v>
+        <v>0.006810331139396251</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01920959007593119</v>
+        <v>0.01902741423464228</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -5642,19 +5642,19 @@
         <v>40984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32061</v>
+        <v>32056</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51508</v>
+        <v>51831</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04560696156222426</v>
+        <v>0.04560696156222425</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03567756508711255</v>
+        <v>0.03567190700934081</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05731808277792927</v>
+        <v>0.05767727600548098</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>87</v>
@@ -5663,19 +5663,19 @@
         <v>49461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39957</v>
+        <v>38346</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61977</v>
+        <v>60565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03069384510524649</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0247960234779044</v>
+        <v>0.02379618643096346</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03846045996706085</v>
+        <v>0.03758450271624434</v>
       </c>
     </row>
     <row r="17">
@@ -5692,19 +5692,19 @@
         <v>34241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24928</v>
+        <v>25712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44984</v>
+        <v>45660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04803794605745695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03497207062314876</v>
+        <v>0.03607179540174341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06310944974515477</v>
+        <v>0.06405726073727808</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -5713,19 +5713,19 @@
         <v>81385</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69779</v>
+        <v>68453</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94275</v>
+        <v>95186</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09056460965912333</v>
+        <v>0.0905646096591233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07765020159220662</v>
+        <v>0.07617400307566684</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1049094063962769</v>
+        <v>0.1059232141864501</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -5734,19 +5734,19 @@
         <v>115626</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100060</v>
+        <v>100610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131540</v>
+        <v>133401</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.071753416306041</v>
+        <v>0.07175341630604101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06209362578280514</v>
+        <v>0.0624350736644076</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08162922654134661</v>
+        <v>0.08278353444713467</v>
       </c>
     </row>
     <row r="18">
@@ -5763,19 +5763,19 @@
         <v>670082</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>658773</v>
+        <v>658124</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>679780</v>
+        <v>679568</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9400693323498129</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9242029370355903</v>
+        <v>0.9232932420597886</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9536736514388909</v>
+        <v>0.9533771385093818</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1473</v>
@@ -5784,19 +5784,19 @@
         <v>776267</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>761585</v>
+        <v>759358</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>791383</v>
+        <v>791630</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8638284287786526</v>
+        <v>0.8638284287786525</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8474901119967458</v>
+        <v>0.8450114481152237</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8806496519523724</v>
+        <v>0.8809236190781281</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2430</v>
@@ -5805,19 +5805,19 @@
         <v>1446351</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1427833</v>
+        <v>1425601</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1464699</v>
+        <v>1463643</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.8975527385887125</v>
+        <v>0.8975527385887127</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8860615710842042</v>
+        <v>0.8846761809862438</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9089390780776582</v>
+        <v>0.9082838517276099</v>
       </c>
     </row>
     <row r="19">
